--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3452,28 +3452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4357.927672441856</v>
+        <v>4788.486957691918</v>
       </c>
       <c r="AB2" t="n">
-        <v>5962.708899635294</v>
+        <v>6551.819108649533</v>
       </c>
       <c r="AC2" t="n">
-        <v>5393.636330968377</v>
+        <v>5926.522688455645</v>
       </c>
       <c r="AD2" t="n">
-        <v>4357927.672441856</v>
+        <v>4788486.957691918</v>
       </c>
       <c r="AE2" t="n">
-        <v>5962708.899635294</v>
+        <v>6551819.108649532</v>
       </c>
       <c r="AF2" t="n">
         <v>1.819898657486553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.24348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5393636.330968376</v>
+        <v>5926522.688455645</v>
       </c>
     </row>
     <row r="3">
@@ -3558,28 +3558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2140.98147651347</v>
+        <v>2415.025906664446</v>
       </c>
       <c r="AB3" t="n">
-        <v>2929.385309602284</v>
+        <v>3304.344988922028</v>
       </c>
       <c r="AC3" t="n">
-        <v>2649.808887071945</v>
+        <v>2988.982940856504</v>
       </c>
       <c r="AD3" t="n">
-        <v>2140981.47651347</v>
+        <v>2415025.906664446</v>
       </c>
       <c r="AE3" t="n">
-        <v>2929385.309602283</v>
+        <v>3304344.988922028</v>
       </c>
       <c r="AF3" t="n">
         <v>2.872686766804844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.63541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2649808.887071945</v>
+        <v>2988982.940856504</v>
       </c>
     </row>
     <row r="4">
@@ -3664,28 +3664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1743.555670476951</v>
+        <v>1988.200371398098</v>
       </c>
       <c r="AB4" t="n">
-        <v>2385.609788593987</v>
+        <v>2720.343461356777</v>
       </c>
       <c r="AC4" t="n">
-        <v>2157.930538594943</v>
+        <v>2460.717699430912</v>
       </c>
       <c r="AD4" t="n">
-        <v>1743555.670476951</v>
+        <v>1988200.371398099</v>
       </c>
       <c r="AE4" t="n">
-        <v>2385609.788593987</v>
+        <v>2720343.461356776</v>
       </c>
       <c r="AF4" t="n">
         <v>3.279144461403113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2157930.538594943</v>
+        <v>2460717.699430912</v>
       </c>
     </row>
     <row r="5">
@@ -3770,28 +3770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1570.180783963506</v>
+        <v>1805.002798195524</v>
       </c>
       <c r="AB5" t="n">
-        <v>2148.390620106121</v>
+        <v>2469.68445959449</v>
       </c>
       <c r="AC5" t="n">
-        <v>1943.351234608365</v>
+        <v>2233.981240994701</v>
       </c>
       <c r="AD5" t="n">
-        <v>1570180.783963506</v>
+        <v>1805002.798195524</v>
       </c>
       <c r="AE5" t="n">
-        <v>2148390.620106121</v>
+        <v>2469684.45959449</v>
       </c>
       <c r="AF5" t="n">
         <v>3.495632604789379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.90234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1943351.234608365</v>
+        <v>2233981.240994701</v>
       </c>
     </row>
     <row r="6">
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1476.289169184154</v>
+        <v>1691.535151905332</v>
       </c>
       <c r="AB6" t="n">
-        <v>2019.92397055931</v>
+        <v>2314.433020100991</v>
       </c>
       <c r="AC6" t="n">
-        <v>1827.145261790227</v>
+        <v>2093.546780989697</v>
       </c>
       <c r="AD6" t="n">
-        <v>1476289.169184154</v>
+        <v>1691535.151905332</v>
       </c>
       <c r="AE6" t="n">
-        <v>2019923.97055931</v>
+        <v>2314433.020100991</v>
       </c>
       <c r="AF6" t="n">
         <v>3.62774340943935e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.26171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1827145.261790227</v>
+        <v>2093546.780989697</v>
       </c>
     </row>
     <row r="7">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1398.692841849586</v>
+        <v>1604.184468719197</v>
       </c>
       <c r="AB7" t="n">
-        <v>1913.753252191797</v>
+        <v>2194.915961725555</v>
       </c>
       <c r="AC7" t="n">
-        <v>1731.10732777217</v>
+        <v>1985.436262922368</v>
       </c>
       <c r="AD7" t="n">
-        <v>1398692.841849586</v>
+        <v>1604184.468719197</v>
       </c>
       <c r="AE7" t="n">
-        <v>1913753.252191797</v>
+        <v>2194915.961725555</v>
       </c>
       <c r="AF7" t="n">
         <v>3.727549747258854e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.10937500000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>1731107.327772171</v>
+        <v>1985436.262922368</v>
       </c>
     </row>
     <row r="8">
@@ -4088,28 +4088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1337.257726334044</v>
+        <v>1542.715187784874</v>
       </c>
       <c r="AB8" t="n">
-        <v>1829.695016817421</v>
+        <v>2110.810979717931</v>
       </c>
       <c r="AC8" t="n">
-        <v>1655.07149240545</v>
+        <v>1909.358142355467</v>
       </c>
       <c r="AD8" t="n">
-        <v>1337257.726334044</v>
+        <v>1542715.187784874</v>
       </c>
       <c r="AE8" t="n">
-        <v>1829695.016817421</v>
+        <v>2110810.979717931</v>
       </c>
       <c r="AF8" t="n">
         <v>3.794328383915865e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.3671875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1655071.49240545</v>
+        <v>1909358.142355467</v>
       </c>
     </row>
     <row r="9">
@@ -4194,28 +4194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1287.468494814753</v>
+        <v>1492.993276073287</v>
       </c>
       <c r="AB9" t="n">
-        <v>1761.571193706857</v>
+        <v>2042.779266538208</v>
       </c>
       <c r="AC9" t="n">
-        <v>1593.449311360172</v>
+        <v>1847.819280398508</v>
       </c>
       <c r="AD9" t="n">
-        <v>1287468.494814753</v>
+        <v>1492993.276073287</v>
       </c>
       <c r="AE9" t="n">
-        <v>1761571.193706857</v>
+        <v>2042779.266538208</v>
       </c>
       <c r="AF9" t="n">
         <v>3.844231552825617e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.82682291666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1593449.311360172</v>
+        <v>1847819.280398509</v>
       </c>
     </row>
     <row r="10">
@@ -4300,28 +4300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1271.760861195713</v>
+        <v>1477.285642454247</v>
       </c>
       <c r="AB10" t="n">
-        <v>1740.079316417398</v>
+        <v>2021.28738924875</v>
       </c>
       <c r="AC10" t="n">
-        <v>1574.00858867518</v>
+        <v>1828.378557713517</v>
       </c>
       <c r="AD10" t="n">
-        <v>1271760.861195713</v>
+        <v>1477285.642454247</v>
       </c>
       <c r="AE10" t="n">
-        <v>1740079.316417398</v>
+        <v>2021287.38924875</v>
       </c>
       <c r="AF10" t="n">
         <v>3.861107020572875e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.65104166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1574008.58867518</v>
+        <v>1828378.557713517</v>
       </c>
     </row>
     <row r="11">
@@ -4406,28 +4406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1271.9273653658</v>
+        <v>1477.452146624335</v>
       </c>
       <c r="AB11" t="n">
-        <v>1740.307134768558</v>
+        <v>2021.515207599909</v>
       </c>
       <c r="AC11" t="n">
-        <v>1574.21466436265</v>
+        <v>1828.584633400986</v>
       </c>
       <c r="AD11" t="n">
-        <v>1271927.3653658</v>
+        <v>1477452.146624335</v>
       </c>
       <c r="AE11" t="n">
-        <v>1740307.134768558</v>
+        <v>2021515.207599909</v>
       </c>
       <c r="AF11" t="n">
         <v>3.864723192233003e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.61197916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1574214.66436265</v>
+        <v>1828584.633400986</v>
       </c>
     </row>
   </sheetData>
@@ -4703,28 +4703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3092.895748003185</v>
+        <v>3451.041901138404</v>
       </c>
       <c r="AB2" t="n">
-        <v>4231.836411348519</v>
+        <v>4721.867778361303</v>
       </c>
       <c r="AC2" t="n">
-        <v>3827.955883668963</v>
+        <v>4271.219344777371</v>
       </c>
       <c r="AD2" t="n">
-        <v>3092895.748003185</v>
+        <v>3451041.901138404</v>
       </c>
       <c r="AE2" t="n">
-        <v>4231836.411348519</v>
+        <v>4721867.778361303</v>
       </c>
       <c r="AF2" t="n">
         <v>2.365613434858767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.59765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3827955.883668963</v>
+        <v>4271219.344777371</v>
       </c>
     </row>
     <row r="3">
@@ -4809,28 +4809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1756.409981436165</v>
+        <v>2008.070093920195</v>
       </c>
       <c r="AB3" t="n">
-        <v>2403.19762394056</v>
+        <v>2747.5300923018</v>
       </c>
       <c r="AC3" t="n">
-        <v>2173.839815620722</v>
+        <v>2485.309676475219</v>
       </c>
       <c r="AD3" t="n">
-        <v>1756409.981436165</v>
+        <v>2008070.093920195</v>
       </c>
       <c r="AE3" t="n">
-        <v>2403197.62394056</v>
+        <v>2747530.0923018</v>
       </c>
       <c r="AF3" t="n">
         <v>3.399382285350683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.52083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2173839.815620722</v>
+        <v>2485309.676475219</v>
       </c>
     </row>
     <row r="4">
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1477.290585809237</v>
+        <v>1699.841731035238</v>
       </c>
       <c r="AB4" t="n">
-        <v>2021.294152965132</v>
+        <v>2325.798448126936</v>
       </c>
       <c r="AC4" t="n">
-        <v>1828.384675910301</v>
+        <v>2103.827508516324</v>
       </c>
       <c r="AD4" t="n">
-        <v>1477290.585809237</v>
+        <v>1699841.731035238</v>
       </c>
       <c r="AE4" t="n">
-        <v>2021294.152965132</v>
+        <v>2325798.448126936</v>
       </c>
       <c r="AF4" t="n">
         <v>3.784770468705797e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.37760416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1828384.675910301</v>
+        <v>2103827.508516324</v>
       </c>
     </row>
     <row r="5">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1344.805216190669</v>
+        <v>1557.675812266563</v>
       </c>
       <c r="AB5" t="n">
-        <v>1840.021825411009</v>
+        <v>2131.280766149948</v>
       </c>
       <c r="AC5" t="n">
-        <v>1664.412724880633</v>
+        <v>1927.874321099939</v>
       </c>
       <c r="AD5" t="n">
-        <v>1344805.216190669</v>
+        <v>1557675.812266563</v>
       </c>
       <c r="AE5" t="n">
-        <v>1840021.825411009</v>
+        <v>2131280.766149948</v>
       </c>
       <c r="AF5" t="n">
         <v>3.991840779406524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1664412.724880633</v>
+        <v>1927874.321099939</v>
       </c>
     </row>
     <row r="6">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1249.371788071322</v>
+        <v>1462.275538536139</v>
       </c>
       <c r="AB6" t="n">
-        <v>1709.445598832411</v>
+        <v>2000.749902868944</v>
       </c>
       <c r="AC6" t="n">
-        <v>1546.298510101812</v>
+        <v>1809.801140209257</v>
       </c>
       <c r="AD6" t="n">
-        <v>1249371.788071322</v>
+        <v>1462275.538536139</v>
       </c>
       <c r="AE6" t="n">
-        <v>1709445.598832411</v>
+        <v>2000749.902868944</v>
       </c>
       <c r="AF6" t="n">
         <v>4.118720804179837e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.69270833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1546298.510101812</v>
+        <v>1809801.140209257</v>
       </c>
     </row>
     <row r="7">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1189.324042901658</v>
+        <v>1402.193627947694</v>
       </c>
       <c r="AB7" t="n">
-        <v>1627.285624771725</v>
+        <v>1918.543182175011</v>
       </c>
       <c r="AC7" t="n">
-        <v>1471.97976865323</v>
+        <v>1735.440113560495</v>
       </c>
       <c r="AD7" t="n">
-        <v>1189324.042901658</v>
+        <v>1402193.627947694</v>
       </c>
       <c r="AE7" t="n">
-        <v>1627285.624771725</v>
+        <v>1918543.182175011</v>
       </c>
       <c r="AF7" t="n">
         <v>4.192316494225065e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.96354166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1471979.76865323</v>
+        <v>1735440.113560495</v>
       </c>
     </row>
     <row r="8">
@@ -5339,28 +5339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1185.53747314369</v>
+        <v>1388.79483987718</v>
       </c>
       <c r="AB8" t="n">
-        <v>1622.104672977207</v>
+        <v>1900.210369224123</v>
       </c>
       <c r="AC8" t="n">
-        <v>1467.293279626469</v>
+        <v>1718.856958547375</v>
       </c>
       <c r="AD8" t="n">
-        <v>1185537.47314369</v>
+        <v>1388794.83987718</v>
       </c>
       <c r="AE8" t="n">
-        <v>1622104.672977207</v>
+        <v>1900210.369224123</v>
       </c>
       <c r="AF8" t="n">
         <v>4.203659199142429e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.85286458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1467293.279626469</v>
+        <v>1718856.958547375</v>
       </c>
     </row>
     <row r="9">
@@ -5445,28 +5445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1189.361768604132</v>
+        <v>1392.619135337622</v>
       </c>
       <c r="AB9" t="n">
-        <v>1627.337242742192</v>
+        <v>1905.442938989108</v>
       </c>
       <c r="AC9" t="n">
-        <v>1472.026460277041</v>
+        <v>1723.590139197948</v>
       </c>
       <c r="AD9" t="n">
-        <v>1189361.768604132</v>
+        <v>1392619.135337622</v>
       </c>
       <c r="AE9" t="n">
-        <v>1627337.242742192</v>
+        <v>1905442.938989108</v>
       </c>
       <c r="AF9" t="n">
         <v>4.203131631471854e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.859375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1472026.460277041</v>
+        <v>1723590.139197948</v>
       </c>
     </row>
   </sheetData>
@@ -5742,28 +5742,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1344.684647854994</v>
+        <v>1587.893007669103</v>
       </c>
       <c r="AB2" t="n">
-        <v>1839.856858495039</v>
+        <v>2172.62526598828</v>
       </c>
       <c r="AC2" t="n">
-        <v>1664.26350217559</v>
+        <v>1965.27295990107</v>
       </c>
       <c r="AD2" t="n">
-        <v>1344684.647854995</v>
+        <v>1587893.007669103</v>
       </c>
       <c r="AE2" t="n">
-        <v>1839856.858495038</v>
+        <v>2172625.26598828</v>
       </c>
       <c r="AF2" t="n">
         <v>4.740382463570837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.56640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1664263.50217559</v>
+        <v>1965272.95990107</v>
       </c>
     </row>
     <row r="3">
@@ -5848,28 +5848,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1017.384416800867</v>
+        <v>1223.103529848365</v>
       </c>
       <c r="AB3" t="n">
-        <v>1392.030242899674</v>
+        <v>1673.504209057999</v>
       </c>
       <c r="AC3" t="n">
-        <v>1259.176830244045</v>
+        <v>1513.787316123412</v>
       </c>
       <c r="AD3" t="n">
-        <v>1017384.416800867</v>
+        <v>1223103.529848365</v>
       </c>
       <c r="AE3" t="n">
-        <v>1392030.242899674</v>
+        <v>1673504.209057999</v>
       </c>
       <c r="AF3" t="n">
         <v>5.559226005239306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.11848958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1259176.830244045</v>
+        <v>1513787.316123412</v>
       </c>
     </row>
     <row r="4">
@@ -5954,28 +5954,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1003.266928830537</v>
+        <v>1218.340512587905</v>
       </c>
       <c r="AB4" t="n">
-        <v>1372.714073039056</v>
+        <v>1666.987238712746</v>
       </c>
       <c r="AC4" t="n">
-        <v>1241.70416852451</v>
+        <v>1507.892316281284</v>
       </c>
       <c r="AD4" t="n">
-        <v>1003266.928830537</v>
+        <v>1218340.512587905</v>
       </c>
       <c r="AE4" t="n">
-        <v>1372714.073039056</v>
+        <v>1666987.238712746</v>
       </c>
       <c r="AF4" t="n">
         <v>5.584262588347874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.92317708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1241704.16852451</v>
+        <v>1507892.316281284</v>
       </c>
     </row>
   </sheetData>
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1832.685008007825</v>
+        <v>2107.578056507228</v>
       </c>
       <c r="AB2" t="n">
-        <v>2507.560480312586</v>
+        <v>2883.681276694858</v>
       </c>
       <c r="AC2" t="n">
-        <v>2268.242427454791</v>
+        <v>2608.466782919191</v>
       </c>
       <c r="AD2" t="n">
-        <v>1832685.008007825</v>
+        <v>2107578.056507228</v>
       </c>
       <c r="AE2" t="n">
-        <v>2507560.480312586</v>
+        <v>2883681.276694858</v>
       </c>
       <c r="AF2" t="n">
         <v>3.638055282250693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.05729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2268242.427454791</v>
+        <v>2608466.782919191</v>
       </c>
     </row>
     <row r="3">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1233.057496936953</v>
+        <v>1460.536683764104</v>
       </c>
       <c r="AB3" t="n">
-        <v>1687.12366596664</v>
+        <v>1998.370725056988</v>
       </c>
       <c r="AC3" t="n">
-        <v>1526.10695117972</v>
+        <v>1807.649027788477</v>
       </c>
       <c r="AD3" t="n">
-        <v>1233057.496936953</v>
+        <v>1460536.683764104</v>
       </c>
       <c r="AE3" t="n">
-        <v>1687123.66596664</v>
+        <v>1998370.725056988</v>
       </c>
       <c r="AF3" t="n">
         <v>4.615643143370818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.97395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1526106.95117972</v>
+        <v>1807649.027788477</v>
       </c>
     </row>
     <row r="4">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1084.256041972588</v>
+        <v>1283.32269486294</v>
       </c>
       <c r="AB4" t="n">
-        <v>1483.526950627513</v>
+        <v>1755.898727313001</v>
       </c>
       <c r="AC4" t="n">
-        <v>1341.941220602775</v>
+        <v>1588.31821719759</v>
       </c>
       <c r="AD4" t="n">
-        <v>1084256.041972588</v>
+        <v>1283322.69486294</v>
       </c>
       <c r="AE4" t="n">
-        <v>1483526.950627513</v>
+        <v>1755898.727313001</v>
       </c>
       <c r="AF4" t="n">
         <v>4.939592675953351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.02473958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1341941.220602775</v>
+        <v>1588318.21719759</v>
       </c>
     </row>
     <row r="5">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1065.06930407136</v>
+        <v>1273.617516060334</v>
       </c>
       <c r="AB5" t="n">
-        <v>1457.274809371916</v>
+        <v>1742.619673513005</v>
       </c>
       <c r="AC5" t="n">
-        <v>1318.194546863501</v>
+        <v>1576.306497654996</v>
       </c>
       <c r="AD5" t="n">
-        <v>1065069.30407136</v>
+        <v>1273617.516060334</v>
       </c>
       <c r="AE5" t="n">
-        <v>1457274.809371916</v>
+        <v>1742619.673513005</v>
       </c>
       <c r="AF5" t="n">
         <v>4.968288992815978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.78385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1318194.546863501</v>
+        <v>1576306.497654996</v>
       </c>
     </row>
     <row r="6">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1067.755935562351</v>
+        <v>1276.304147551325</v>
       </c>
       <c r="AB6" t="n">
-        <v>1460.950777103707</v>
+        <v>1746.295641244795</v>
       </c>
       <c r="AC6" t="n">
-        <v>1321.519685394222</v>
+        <v>1579.631636185717</v>
       </c>
       <c r="AD6" t="n">
-        <v>1067755.935562351</v>
+        <v>1276304.147551325</v>
       </c>
       <c r="AE6" t="n">
-        <v>1460950.777103707</v>
+        <v>1746295.641244795</v>
       </c>
       <c r="AF6" t="n">
         <v>4.974028256188502e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.73177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1321519.685394222</v>
+        <v>1579631.636185717</v>
       </c>
     </row>
   </sheetData>
@@ -6972,28 +6972,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1046.312199710873</v>
+        <v>1268.20638565386</v>
       </c>
       <c r="AB2" t="n">
-        <v>1431.610511680857</v>
+        <v>1735.215926168641</v>
       </c>
       <c r="AC2" t="n">
-        <v>1294.979613724008</v>
+        <v>1569.609353565953</v>
       </c>
       <c r="AD2" t="n">
-        <v>1046312.199710873</v>
+        <v>1268206.385653859</v>
       </c>
       <c r="AE2" t="n">
-        <v>1431610.511680857</v>
+        <v>1735215.926168641</v>
       </c>
       <c r="AF2" t="n">
         <v>5.9076758170738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.47135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1294979.613724008</v>
+        <v>1569609.353565953</v>
       </c>
     </row>
     <row r="3">
@@ -7078,28 +7078,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>971.6134639701063</v>
+        <v>1184.357891948401</v>
       </c>
       <c r="AB3" t="n">
-        <v>1329.404405964702</v>
+        <v>1620.490717946362</v>
       </c>
       <c r="AC3" t="n">
-        <v>1202.527915290232</v>
+        <v>1465.833358198568</v>
       </c>
       <c r="AD3" t="n">
-        <v>971613.4639701063</v>
+        <v>1184357.891948401</v>
       </c>
       <c r="AE3" t="n">
-        <v>1329404.405964702</v>
+        <v>1620490.717946362</v>
       </c>
       <c r="AF3" t="n">
         <v>6.167446557549027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.51171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1202527.915290232</v>
+        <v>1465833.358198568</v>
       </c>
     </row>
   </sheetData>
@@ -7375,28 +7375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3369.871855243886</v>
+        <v>3748.451743660569</v>
       </c>
       <c r="AB2" t="n">
-        <v>4610.807340598722</v>
+        <v>5128.797045696383</v>
       </c>
       <c r="AC2" t="n">
-        <v>4170.758359320552</v>
+        <v>4639.311853966789</v>
       </c>
       <c r="AD2" t="n">
-        <v>3369871.855243886</v>
+        <v>3748451.743660569</v>
       </c>
       <c r="AE2" t="n">
-        <v>4610807.340598723</v>
+        <v>5128797.045696383</v>
       </c>
       <c r="AF2" t="n">
         <v>2.212194336350674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.76171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4170758.359320552</v>
+        <v>4639311.853966789</v>
       </c>
     </row>
     <row r="3">
@@ -7481,28 +7481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1846.024927260081</v>
+        <v>2098.355588203091</v>
       </c>
       <c r="AB3" t="n">
-        <v>2525.812746349225</v>
+        <v>2871.062688694553</v>
       </c>
       <c r="AC3" t="n">
-        <v>2284.752722838109</v>
+        <v>2597.052495247336</v>
       </c>
       <c r="AD3" t="n">
-        <v>1846024.927260081</v>
+        <v>2098355.588203092</v>
       </c>
       <c r="AE3" t="n">
-        <v>2525812.746349225</v>
+        <v>2871062.688694553</v>
       </c>
       <c r="AF3" t="n">
         <v>3.256770158658218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.45833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2284752.722838109</v>
+        <v>2597052.495247336</v>
       </c>
     </row>
     <row r="4">
@@ -7587,28 +7587,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1537.073121661059</v>
+        <v>1770.019079595339</v>
       </c>
       <c r="AB4" t="n">
-        <v>2103.091255936936</v>
+        <v>2421.81819243298</v>
       </c>
       <c r="AC4" t="n">
-        <v>1902.375178177431</v>
+        <v>2190.683263190357</v>
       </c>
       <c r="AD4" t="n">
-        <v>1537073.121661059</v>
+        <v>1770019.079595339</v>
       </c>
       <c r="AE4" t="n">
-        <v>2103091.255936936</v>
+        <v>2421818.19243298</v>
       </c>
       <c r="AF4" t="n">
         <v>3.646748564472888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.95052083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1902375.178177431</v>
+        <v>2190683.263190357</v>
       </c>
     </row>
     <row r="5">
@@ -7693,28 +7693,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1399.237701533064</v>
+        <v>1612.732647680768</v>
       </c>
       <c r="AB5" t="n">
-        <v>1914.498753248245</v>
+        <v>2206.611957299816</v>
       </c>
       <c r="AC5" t="n">
-        <v>1731.781679254108</v>
+        <v>1996.016009094454</v>
       </c>
       <c r="AD5" t="n">
-        <v>1399237.701533064</v>
+        <v>1612732.647680768</v>
       </c>
       <c r="AE5" t="n">
-        <v>1914498.753248245</v>
+        <v>2206611.957299816</v>
       </c>
       <c r="AF5" t="n">
         <v>3.853449990129112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.48958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1731781.679254108</v>
+        <v>1996016.009094454</v>
       </c>
     </row>
     <row r="6">
@@ -7799,28 +7799,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1311.55863329574</v>
+        <v>1515.378816163398</v>
       </c>
       <c r="AB6" t="n">
-        <v>1794.532383958446</v>
+        <v>2073.408150069826</v>
       </c>
       <c r="AC6" t="n">
-        <v>1623.264731875471</v>
+        <v>1875.524986273776</v>
       </c>
       <c r="AD6" t="n">
-        <v>1311558.63329574</v>
+        <v>1515378.816163398</v>
       </c>
       <c r="AE6" t="n">
-        <v>1794532.383958446</v>
+        <v>2073408.150069826</v>
       </c>
       <c r="AF6" t="n">
         <v>3.983185380578348e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.07031250000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>1623264.731875471</v>
+        <v>1875524.986273776</v>
       </c>
     </row>
     <row r="7">
@@ -7905,28 +7905,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1242.875011504071</v>
+        <v>1446.661028952948</v>
       </c>
       <c r="AB7" t="n">
-        <v>1700.556422515545</v>
+        <v>1979.385441993677</v>
       </c>
       <c r="AC7" t="n">
-        <v>1538.25770429659</v>
+        <v>1790.475673494716</v>
       </c>
       <c r="AD7" t="n">
-        <v>1242875.011504071</v>
+        <v>1446661.028952948</v>
       </c>
       <c r="AE7" t="n">
-        <v>1700556.422515545</v>
+        <v>1979385.441993677</v>
       </c>
       <c r="AF7" t="n">
         <v>4.070190463855813e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1538257.70429659</v>
+        <v>1790475.673494716</v>
       </c>
     </row>
     <row r="8">
@@ -8011,28 +8011,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1203.477255499997</v>
+        <v>1407.330592756578</v>
       </c>
       <c r="AB8" t="n">
-        <v>1646.650674644445</v>
+        <v>1925.57180405342</v>
       </c>
       <c r="AC8" t="n">
-        <v>1489.496645345116</v>
+        <v>1741.797933631561</v>
       </c>
       <c r="AD8" t="n">
-        <v>1203477.255499997</v>
+        <v>1407330.592756578</v>
       </c>
       <c r="AE8" t="n">
-        <v>1646650.674644445</v>
+        <v>1925571.80405342</v>
       </c>
       <c r="AF8" t="n">
         <v>4.105970660824947e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.81380208333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1489496.645345116</v>
+        <v>1741797.933631561</v>
       </c>
     </row>
     <row r="9">
@@ -8117,28 +8117,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1204.743471398544</v>
+        <v>1408.596808655126</v>
       </c>
       <c r="AB9" t="n">
-        <v>1648.383167098341</v>
+        <v>1927.304296507315</v>
       </c>
       <c r="AC9" t="n">
-        <v>1491.06379115078</v>
+        <v>1743.365079437225</v>
       </c>
       <c r="AD9" t="n">
-        <v>1204743.471398544</v>
+        <v>1408596.808655126</v>
       </c>
       <c r="AE9" t="n">
-        <v>1648383.167098341</v>
+        <v>1927304.296507315</v>
       </c>
       <c r="AF9" t="n">
         <v>4.112405948049612e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.74869791666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1491063.79115078</v>
+        <v>1743365.079437225</v>
       </c>
     </row>
   </sheetData>
@@ -8414,28 +8414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>964.8858934596809</v>
+        <v>1176.177496003932</v>
       </c>
       <c r="AB2" t="n">
-        <v>1320.199447192874</v>
+        <v>1609.297939321542</v>
       </c>
       <c r="AC2" t="n">
-        <v>1194.201464864347</v>
+        <v>1455.708802656537</v>
       </c>
       <c r="AD2" t="n">
-        <v>964885.893459681</v>
+        <v>1176177.496003932</v>
       </c>
       <c r="AE2" t="n">
-        <v>1320199.447192874</v>
+        <v>1609297.939321542</v>
       </c>
       <c r="AF2" t="n">
         <v>6.511150160131737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.13932291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1194201.464864347</v>
+        <v>1455708.802656537</v>
       </c>
     </row>
     <row r="3">
@@ -8520,28 +8520,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>955.8430037729401</v>
+        <v>1176.323113650462</v>
       </c>
       <c r="AB3" t="n">
-        <v>1307.826566579338</v>
+        <v>1609.497179809722</v>
       </c>
       <c r="AC3" t="n">
-        <v>1183.00943461112</v>
+        <v>1455.88902791216</v>
       </c>
       <c r="AD3" t="n">
-        <v>955843.00377294</v>
+        <v>1176323.113650462</v>
       </c>
       <c r="AE3" t="n">
-        <v>1307826.566579338</v>
+        <v>1609497.179809722</v>
       </c>
       <c r="AF3" t="n">
         <v>6.536067041192407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.96354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1183009.43461112</v>
+        <v>1455889.02791216</v>
       </c>
     </row>
   </sheetData>
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2397.648990885911</v>
+        <v>2713.931985099216</v>
       </c>
       <c r="AB2" t="n">
-        <v>3280.569126138416</v>
+        <v>3713.321472242007</v>
       </c>
       <c r="AC2" t="n">
-        <v>2967.476213047328</v>
+        <v>3358.927282610508</v>
       </c>
       <c r="AD2" t="n">
-        <v>2397648.990885911</v>
+        <v>2713931.985099216</v>
       </c>
       <c r="AE2" t="n">
-        <v>3280569.126138416</v>
+        <v>3713321.472242007</v>
       </c>
       <c r="AF2" t="n">
         <v>2.904713855758623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.29036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2967476.213047328</v>
+        <v>3358927.282610508</v>
       </c>
     </row>
     <row r="3">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1490.903557459233</v>
+        <v>1730.546321211498</v>
       </c>
       <c r="AB3" t="n">
-        <v>2039.92002133858</v>
+        <v>2367.809822997011</v>
       </c>
       <c r="AC3" t="n">
-        <v>1845.232917547757</v>
+        <v>2141.829376732134</v>
       </c>
       <c r="AD3" t="n">
-        <v>1490903.557459233</v>
+        <v>1730546.321211498</v>
       </c>
       <c r="AE3" t="n">
-        <v>2039920.02133858</v>
+        <v>2367809.822997011</v>
       </c>
       <c r="AF3" t="n">
         <v>3.916645373791252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.67578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1845232.917547757</v>
+        <v>2141829.376732134</v>
       </c>
     </row>
     <row r="4">
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1272.909435309696</v>
+        <v>1483.855198548744</v>
       </c>
       <c r="AB4" t="n">
-        <v>1741.650846191664</v>
+        <v>2030.276145725599</v>
       </c>
       <c r="AC4" t="n">
-        <v>1575.430133853446</v>
+        <v>1836.509439888014</v>
       </c>
       <c r="AD4" t="n">
-        <v>1272909.435309696</v>
+        <v>1483855.198548744</v>
       </c>
       <c r="AE4" t="n">
-        <v>1741650.846191664</v>
+        <v>2030276.145725599</v>
       </c>
       <c r="AF4" t="n">
         <v>4.287801661867844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.54817708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1575430.133853446</v>
+        <v>1836509.439888014</v>
       </c>
     </row>
     <row r="5">
@@ -9135,28 +9135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1157.399318461429</v>
+        <v>1368.276750862914</v>
       </c>
       <c r="AB5" t="n">
-        <v>1583.604808373163</v>
+        <v>1872.136614640602</v>
       </c>
       <c r="AC5" t="n">
-        <v>1432.467788065336</v>
+        <v>1693.462523699544</v>
       </c>
       <c r="AD5" t="n">
-        <v>1157399.318461429</v>
+        <v>1368276.750862914</v>
       </c>
       <c r="AE5" t="n">
-        <v>1583604.808373163</v>
+        <v>1872136.614640602</v>
       </c>
       <c r="AF5" t="n">
         <v>4.479116379137619e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.69270833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1432467.788065336</v>
+        <v>1693462.523699544</v>
       </c>
     </row>
     <row r="6">
@@ -9241,28 +9241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1128.282229643945</v>
+        <v>1329.538063872914</v>
       </c>
       <c r="AB6" t="n">
-        <v>1543.765522897783</v>
+        <v>1819.132634070631</v>
       </c>
       <c r="AC6" t="n">
-        <v>1396.430708080937</v>
+        <v>1645.517168643617</v>
       </c>
       <c r="AD6" t="n">
-        <v>1128282.229643945</v>
+        <v>1329538.063872914</v>
       </c>
       <c r="AE6" t="n">
-        <v>1543765.522897783</v>
+        <v>1819132.634070631</v>
       </c>
       <c r="AF6" t="n">
         <v>4.535334796806098e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1396430.708080937</v>
+        <v>1645517.168643617</v>
       </c>
     </row>
     <row r="7">
@@ -9347,28 +9347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1131.57189345298</v>
+        <v>1332.827727681949</v>
       </c>
       <c r="AB7" t="n">
-        <v>1548.26658605103</v>
+        <v>1823.633697223878</v>
       </c>
       <c r="AC7" t="n">
-        <v>1400.50219608412</v>
+        <v>1649.5886566468</v>
       </c>
       <c r="AD7" t="n">
-        <v>1131571.893452981</v>
+        <v>1332827.72768195</v>
       </c>
       <c r="AE7" t="n">
-        <v>1548266.58605103</v>
+        <v>1823633.697223878</v>
       </c>
       <c r="AF7" t="n">
         <v>4.533900653498229e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.18489583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1400502.19608412</v>
+        <v>1649588.6566468</v>
       </c>
     </row>
   </sheetData>
@@ -9644,28 +9644,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2842.881410606506</v>
+        <v>3190.252335372423</v>
       </c>
       <c r="AB2" t="n">
-        <v>3889.755765068246</v>
+        <v>4365.043989256621</v>
       </c>
       <c r="AC2" t="n">
-        <v>3518.52293415649</v>
+        <v>3948.450317299522</v>
       </c>
       <c r="AD2" t="n">
-        <v>2842881.410606506</v>
+        <v>3190252.335372423</v>
       </c>
       <c r="AE2" t="n">
-        <v>3889755.765068246</v>
+        <v>4365043.989256621</v>
       </c>
       <c r="AF2" t="n">
         <v>2.528721174041565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.70052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3518522.93415649</v>
+        <v>3948450.317299522</v>
       </c>
     </row>
     <row r="3">
@@ -9750,28 +9750,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1666.814860738443</v>
+        <v>1917.674881170061</v>
       </c>
       <c r="AB3" t="n">
-        <v>2280.609627144177</v>
+        <v>2623.847374261736</v>
       </c>
       <c r="AC3" t="n">
-        <v>2062.951445185251</v>
+        <v>2373.431063455113</v>
       </c>
       <c r="AD3" t="n">
-        <v>1666814.860738443</v>
+        <v>1917674.881170061</v>
       </c>
       <c r="AE3" t="n">
-        <v>2280609.627144177</v>
+        <v>2623847.374261735</v>
       </c>
       <c r="AF3" t="n">
         <v>3.556183364136611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.56380208333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2062951.445185251</v>
+        <v>2373431.063455113</v>
       </c>
     </row>
     <row r="4">
@@ -9856,28 +9856,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1406.203689435136</v>
+        <v>1628.144603985244</v>
       </c>
       <c r="AB4" t="n">
-        <v>1924.029925213555</v>
+        <v>2227.699275843125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1740.403209544134</v>
+        <v>2015.090783552227</v>
       </c>
       <c r="AD4" t="n">
-        <v>1406203.689435136</v>
+        <v>1628144.603985244</v>
       </c>
       <c r="AE4" t="n">
-        <v>1924029.925213555</v>
+        <v>2227699.275843125</v>
       </c>
       <c r="AF4" t="n">
         <v>3.937928209468368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.75911458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1740403.209544134</v>
+        <v>2015090.783552227</v>
       </c>
     </row>
     <row r="5">
@@ -9962,28 +9962,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1278.901760480544</v>
+        <v>1491.191584597222</v>
       </c>
       <c r="AB5" t="n">
-        <v>1749.849809853147</v>
+        <v>2040.314112775637</v>
       </c>
       <c r="AC5" t="n">
-        <v>1582.846599930395</v>
+        <v>1845.589397451172</v>
       </c>
       <c r="AD5" t="n">
-        <v>1278901.760480544</v>
+        <v>1491191.584597222</v>
       </c>
       <c r="AE5" t="n">
-        <v>1749849.809853147</v>
+        <v>2040314.112775637</v>
       </c>
       <c r="AF5" t="n">
         <v>4.139901014161624e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.57812500000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>1582846.599930395</v>
+        <v>1845589.397451172</v>
       </c>
     </row>
     <row r="6">
@@ -10068,28 +10068,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1196.765291741151</v>
+        <v>1399.336705616695</v>
       </c>
       <c r="AB6" t="n">
-        <v>1637.467069718651</v>
+        <v>1914.63421500322</v>
       </c>
       <c r="AC6" t="n">
-        <v>1481.189510784169</v>
+        <v>1731.904212729311</v>
       </c>
       <c r="AD6" t="n">
-        <v>1196765.291741152</v>
+        <v>1399336.705616695</v>
       </c>
       <c r="AE6" t="n">
-        <v>1637467.069718651</v>
+        <v>1914634.21500322</v>
       </c>
       <c r="AF6" t="n">
         <v>4.264171144663238e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.33463541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1481189.510784168</v>
+        <v>1731904.212729311</v>
       </c>
     </row>
     <row r="7">
@@ -10174,28 +10174,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1162.77669242999</v>
+        <v>1374.998185709107</v>
       </c>
       <c r="AB7" t="n">
-        <v>1590.962368669945</v>
+        <v>1881.33317832594</v>
       </c>
       <c r="AC7" t="n">
-        <v>1439.123153133794</v>
+        <v>1701.781380254211</v>
       </c>
       <c r="AD7" t="n">
-        <v>1162776.69242999</v>
+        <v>1374998.185709107</v>
       </c>
       <c r="AE7" t="n">
-        <v>1590962.368669945</v>
+        <v>1881333.17832594</v>
       </c>
       <c r="AF7" t="n">
         <v>4.30153340612124e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.9765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1439123.153133794</v>
+        <v>1701781.380254211</v>
       </c>
     </row>
     <row r="8">
@@ -10280,28 +10280,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1164.939197794837</v>
+        <v>1377.160691073953</v>
       </c>
       <c r="AB8" t="n">
-        <v>1593.921203913132</v>
+        <v>1884.292013569127</v>
       </c>
       <c r="AC8" t="n">
-        <v>1441.799601294122</v>
+        <v>1704.457828414539</v>
       </c>
       <c r="AD8" t="n">
-        <v>1164939.197794837</v>
+        <v>1377160.691073953</v>
       </c>
       <c r="AE8" t="n">
-        <v>1593921.203913132</v>
+        <v>1884292.013569127</v>
       </c>
       <c r="AF8" t="n">
         <v>4.305053039446994e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.94401041666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1441799.601294122</v>
+        <v>1704457.828414539</v>
       </c>
     </row>
   </sheetData>
@@ -10577,28 +10577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3990.329553218355</v>
+        <v>4400.232971597479</v>
       </c>
       <c r="AB2" t="n">
-        <v>5459.744935629209</v>
+        <v>6020.592876318098</v>
       </c>
       <c r="AC2" t="n">
-        <v>4938.674541772696</v>
+        <v>5445.995942157243</v>
       </c>
       <c r="AD2" t="n">
-        <v>3990329.553218355</v>
+        <v>4400232.97159748</v>
       </c>
       <c r="AE2" t="n">
-        <v>5459744.93562921</v>
+        <v>6020592.876318098</v>
       </c>
       <c r="AF2" t="n">
         <v>1.943347669797677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4938674.541772696</v>
+        <v>5445995.942157243</v>
       </c>
     </row>
     <row r="3">
@@ -10683,28 +10683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2040.408018602523</v>
+        <v>2313.699067114557</v>
       </c>
       <c r="AB3" t="n">
-        <v>2791.77626750071</v>
+        <v>3165.705136825194</v>
       </c>
       <c r="AC3" t="n">
-        <v>2525.333058813042</v>
+        <v>2863.574681661543</v>
       </c>
       <c r="AD3" t="n">
-        <v>2040408.018602523</v>
+        <v>2313699.067114557</v>
       </c>
       <c r="AE3" t="n">
-        <v>2791776.26750071</v>
+        <v>3165705.136825194</v>
       </c>
       <c r="AF3" t="n">
         <v>2.99131808241147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.56119791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2525333.058813042</v>
+        <v>2863574.681661543</v>
       </c>
     </row>
     <row r="4">
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1681.689247679066</v>
+        <v>1915.89580189509</v>
       </c>
       <c r="AB4" t="n">
-        <v>2300.961419567976</v>
+        <v>2621.413159510282</v>
       </c>
       <c r="AC4" t="n">
-        <v>2081.360891104043</v>
+        <v>2371.229166743097</v>
       </c>
       <c r="AD4" t="n">
-        <v>1681689.247679066</v>
+        <v>1915895.80189509</v>
       </c>
       <c r="AE4" t="n">
-        <v>2300961.419567976</v>
+        <v>2621413.159510282</v>
       </c>
       <c r="AF4" t="n">
         <v>3.392244292403924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.23307291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2081360.891104043</v>
+        <v>2371229.166743097</v>
       </c>
     </row>
     <row r="5">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1517.093030672592</v>
+        <v>1741.502584493063</v>
       </c>
       <c r="AB5" t="n">
-        <v>2075.753613987113</v>
+        <v>2382.800665775072</v>
       </c>
       <c r="AC5" t="n">
-        <v>1877.646602406677</v>
+        <v>2155.389514515236</v>
       </c>
       <c r="AD5" t="n">
-        <v>1517093.030672592</v>
+        <v>1741502.584493063</v>
       </c>
       <c r="AE5" t="n">
-        <v>2075753.613987113</v>
+        <v>2382800.665775072</v>
       </c>
       <c r="AF5" t="n">
         <v>3.604644120042651e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1877646.602406677</v>
+        <v>2155389.514515236</v>
       </c>
     </row>
     <row r="6">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1412.82162927684</v>
+        <v>1627.569833347025</v>
       </c>
       <c r="AB6" t="n">
-        <v>1933.084882467875</v>
+        <v>2226.912849298823</v>
       </c>
       <c r="AC6" t="n">
-        <v>1748.593974386813</v>
+        <v>2014.379412453557</v>
       </c>
       <c r="AD6" t="n">
-        <v>1412821.62927684</v>
+        <v>1627569.833347025</v>
       </c>
       <c r="AE6" t="n">
-        <v>1933084.882467875</v>
+        <v>2226912.849298824</v>
       </c>
       <c r="AF6" t="n">
         <v>3.740255133981167e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.83854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1748593.974386813</v>
+        <v>2014379.412453557</v>
       </c>
     </row>
     <row r="7">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1341.431411606054</v>
+        <v>1556.145450257459</v>
       </c>
       <c r="AB7" t="n">
-        <v>1835.405637136584</v>
+        <v>2129.186857334284</v>
       </c>
       <c r="AC7" t="n">
-        <v>1660.237099136258</v>
+        <v>1925.980252002823</v>
       </c>
       <c r="AD7" t="n">
-        <v>1341431.411606054</v>
+        <v>1556145.450257459</v>
       </c>
       <c r="AE7" t="n">
-        <v>1835405.637136584</v>
+        <v>2129186.857334285</v>
       </c>
       <c r="AF7" t="n">
         <v>3.833041617202256e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.80338541666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1660237.099136258</v>
+        <v>1925980.252002823</v>
       </c>
     </row>
     <row r="8">
@@ -11213,28 +11213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1291.259890838704</v>
+        <v>1496.177940124414</v>
       </c>
       <c r="AB8" t="n">
-        <v>1766.758749011415</v>
+        <v>2047.136664390422</v>
       </c>
       <c r="AC8" t="n">
-        <v>1598.141773667243</v>
+        <v>1851.760814315354</v>
       </c>
       <c r="AD8" t="n">
-        <v>1291259.890838705</v>
+        <v>1496177.940124414</v>
       </c>
       <c r="AE8" t="n">
-        <v>1766758.749011415</v>
+        <v>2047136.664390422</v>
       </c>
       <c r="AF8" t="n">
         <v>3.900970183167829e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.07421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1598141.773667243</v>
+        <v>1851760.814315354</v>
       </c>
     </row>
     <row r="9">
@@ -11319,28 +11319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1253.960978842269</v>
+        <v>1458.946347935684</v>
       </c>
       <c r="AB9" t="n">
-        <v>1715.724732106029</v>
+        <v>1996.194757415878</v>
       </c>
       <c r="AC9" t="n">
-        <v>1551.978371708615</v>
+        <v>1805.680731445044</v>
       </c>
       <c r="AD9" t="n">
-        <v>1253960.978842269</v>
+        <v>1458946.347935684</v>
       </c>
       <c r="AE9" t="n">
-        <v>1715724.73210603</v>
+        <v>1996194.757415878</v>
       </c>
       <c r="AF9" t="n">
         <v>3.929273752320151e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.78125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1551978.371708615</v>
+        <v>1805680.731445044</v>
       </c>
     </row>
     <row r="10">
@@ -11425,28 +11425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1249.337391151657</v>
+        <v>1454.322760245072</v>
       </c>
       <c r="AB10" t="n">
-        <v>1709.398535449442</v>
+        <v>1989.86856075929</v>
       </c>
       <c r="AC10" t="n">
-        <v>1546.255938382059</v>
+        <v>1799.958298118488</v>
       </c>
       <c r="AD10" t="n">
-        <v>1249337.391151657</v>
+        <v>1454322.760245072</v>
       </c>
       <c r="AE10" t="n">
-        <v>1709398.535449442</v>
+        <v>1989868.56075929</v>
       </c>
       <c r="AF10" t="n">
         <v>3.94034906198845e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.6640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1546255.938382059</v>
+        <v>1799958.298118488</v>
       </c>
     </row>
     <row r="11">
@@ -11531,28 +11531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1252.394408974655</v>
+        <v>1457.379778068069</v>
       </c>
       <c r="AB11" t="n">
-        <v>1713.581282100974</v>
+        <v>1994.051307410823</v>
       </c>
       <c r="AC11" t="n">
-        <v>1550.039489563691</v>
+        <v>1803.741849300121</v>
       </c>
       <c r="AD11" t="n">
-        <v>1252394.408974655</v>
+        <v>1457379.778068069</v>
       </c>
       <c r="AE11" t="n">
-        <v>1713581.282100974</v>
+        <v>1994051.307410823</v>
       </c>
       <c r="AF11" t="n">
         <v>3.939364590017935e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.67708333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1550039.489563691</v>
+        <v>1803741.849300121</v>
       </c>
     </row>
   </sheetData>
@@ -11828,28 +11828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2007.566964938631</v>
+        <v>2293.05773938833</v>
       </c>
       <c r="AB2" t="n">
-        <v>2746.84168903274</v>
+        <v>3137.462761599059</v>
       </c>
       <c r="AC2" t="n">
-        <v>2484.686973447978</v>
+        <v>2838.027719088569</v>
       </c>
       <c r="AD2" t="n">
-        <v>2007566.964938631</v>
+        <v>2293057.73938833</v>
       </c>
       <c r="AE2" t="n">
-        <v>2746841.68903274</v>
+        <v>3137462.761599059</v>
       </c>
       <c r="AF2" t="n">
         <v>3.364308405601398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2484686.973447978</v>
+        <v>2838027.719088568</v>
       </c>
     </row>
     <row r="3">
@@ -11934,28 +11934,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1317.630561311967</v>
+        <v>1546.036038215351</v>
       </c>
       <c r="AB3" t="n">
-        <v>1802.840263744806</v>
+        <v>2115.35471378249</v>
       </c>
       <c r="AC3" t="n">
-        <v>1630.779719275203</v>
+        <v>1913.468228818076</v>
       </c>
       <c r="AD3" t="n">
-        <v>1317630.561311967</v>
+        <v>1546036.038215351</v>
       </c>
       <c r="AE3" t="n">
-        <v>1802840.263744806</v>
+        <v>2115354.71378249</v>
       </c>
       <c r="AF3" t="n">
         <v>4.356879102557214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.84635416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1630779.719275203</v>
+        <v>1913468.228818076</v>
       </c>
     </row>
     <row r="4">
@@ -12040,28 +12040,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1138.727219155404</v>
+        <v>1348.025892272671</v>
       </c>
       <c r="AB4" t="n">
-        <v>1558.056818347776</v>
+        <v>1844.428496512604</v>
       </c>
       <c r="AC4" t="n">
-        <v>1409.358062351142</v>
+        <v>1668.398829477094</v>
       </c>
       <c r="AD4" t="n">
-        <v>1138727.219155404</v>
+        <v>1348025.892272671</v>
       </c>
       <c r="AE4" t="n">
-        <v>1558056.818347776</v>
+        <v>1844428.496512604</v>
       </c>
       <c r="AF4" t="n">
         <v>4.713099992562069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.38281249999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1409358.062351142</v>
+        <v>1668398.829477094</v>
       </c>
     </row>
     <row r="5">
@@ -12146,28 +12146,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1084.831558923745</v>
+        <v>1284.746140697073</v>
       </c>
       <c r="AB5" t="n">
-        <v>1484.314398310102</v>
+        <v>1757.84634870126</v>
       </c>
       <c r="AC5" t="n">
-        <v>1342.653515383728</v>
+        <v>1590.079960334057</v>
       </c>
       <c r="AD5" t="n">
-        <v>1084831.558923746</v>
+        <v>1284746.140697073</v>
       </c>
       <c r="AE5" t="n">
-        <v>1484314.398310102</v>
+        <v>1757846.34870126</v>
       </c>
       <c r="AF5" t="n">
         <v>4.811283183605611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.51692708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1342653.515383728</v>
+        <v>1590079.960334057</v>
       </c>
     </row>
     <row r="6">
@@ -12252,28 +12252,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1089.913411634355</v>
+        <v>1289.827993407682</v>
       </c>
       <c r="AB6" t="n">
-        <v>1491.267613384277</v>
+        <v>1764.799563775434</v>
       </c>
       <c r="AC6" t="n">
-        <v>1348.943125370121</v>
+        <v>1596.36957032045</v>
       </c>
       <c r="AD6" t="n">
-        <v>1089913.411634355</v>
+        <v>1289827.993407682</v>
       </c>
       <c r="AE6" t="n">
-        <v>1491267.613384276</v>
+        <v>1764799.563775434</v>
       </c>
       <c r="AF6" t="n">
         <v>4.808828603829522e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.54296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1348943.125370121</v>
+        <v>1596369.57032045</v>
       </c>
     </row>
   </sheetData>
@@ -12549,28 +12549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1497.94403025603</v>
+        <v>1751.735065790713</v>
       </c>
       <c r="AB2" t="n">
-        <v>2049.553106822896</v>
+        <v>2396.80119811173</v>
       </c>
       <c r="AC2" t="n">
-        <v>1853.94663487357</v>
+        <v>2168.053855695555</v>
       </c>
       <c r="AD2" t="n">
-        <v>1497944.03025603</v>
+        <v>1751735.065790713</v>
       </c>
       <c r="AE2" t="n">
-        <v>2049553.106822896</v>
+        <v>2396801.19811173</v>
       </c>
       <c r="AF2" t="n">
         <v>4.312485573784683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.66927083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1853946.63487357</v>
+        <v>2168053.855695555</v>
       </c>
     </row>
     <row r="3">
@@ -12655,28 +12655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1070.765092147674</v>
+        <v>1277.484141031419</v>
       </c>
       <c r="AB3" t="n">
-        <v>1465.068037898365</v>
+        <v>1747.910160381897</v>
       </c>
       <c r="AC3" t="n">
-        <v>1325.24400059725</v>
+        <v>1581.092067882366</v>
       </c>
       <c r="AD3" t="n">
-        <v>1070765.092147674</v>
+        <v>1277484.141031419</v>
       </c>
       <c r="AE3" t="n">
-        <v>1465068.037898365</v>
+        <v>1747910.160381897</v>
       </c>
       <c r="AF3" t="n">
         <v>5.244688587549967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.30729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1325244.00059725</v>
+        <v>1581092.067882366</v>
       </c>
     </row>
     <row r="4">
@@ -12761,28 +12761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1024.216664752309</v>
+        <v>1230.901548217273</v>
       </c>
       <c r="AB4" t="n">
-        <v>1401.378425964344</v>
+        <v>1684.173801814629</v>
       </c>
       <c r="AC4" t="n">
-        <v>1267.63283583728</v>
+        <v>1523.438617922217</v>
       </c>
       <c r="AD4" t="n">
-        <v>1024216.66475231</v>
+        <v>1230901.548217273</v>
       </c>
       <c r="AE4" t="n">
-        <v>1401378.425964344</v>
+        <v>1684173.801814629</v>
       </c>
       <c r="AF4" t="n">
         <v>5.358422937283306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.38932291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1267632.83583728</v>
+        <v>1523438.617922217</v>
       </c>
     </row>
     <row r="5">
@@ -12867,28 +12867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1028.605316823983</v>
+        <v>1235.290200288947</v>
       </c>
       <c r="AB5" t="n">
-        <v>1407.383173342473</v>
+        <v>1690.178549192758</v>
       </c>
       <c r="AC5" t="n">
-        <v>1273.064498553356</v>
+        <v>1528.870280638293</v>
       </c>
       <c r="AD5" t="n">
-        <v>1028605.316823983</v>
+        <v>1235290.200288947</v>
       </c>
       <c r="AE5" t="n">
-        <v>1407383.173342473</v>
+        <v>1690178.549192758</v>
       </c>
       <c r="AF5" t="n">
         <v>5.358771815656721e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.38281249999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>1273064.498553356</v>
+        <v>1528870.280638293</v>
       </c>
     </row>
   </sheetData>
@@ -23281,28 +23281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1192.863051659549</v>
+        <v>1425.376586455591</v>
       </c>
       <c r="AB2" t="n">
-        <v>1632.12785268432</v>
+        <v>1950.263128765461</v>
       </c>
       <c r="AC2" t="n">
-        <v>1476.359861129956</v>
+        <v>1764.132752967578</v>
       </c>
       <c r="AD2" t="n">
-        <v>1192863.051659549</v>
+        <v>1425376.586455591</v>
       </c>
       <c r="AE2" t="n">
-        <v>1632127.85268432</v>
+        <v>1950263.128765462</v>
       </c>
       <c r="AF2" t="n">
         <v>5.266255425483982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1476359.861129956</v>
+        <v>1764132.752967578</v>
       </c>
     </row>
     <row r="3">
@@ -23387,28 +23387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>986.8524288617784</v>
+        <v>1200.82134863022</v>
       </c>
       <c r="AB3" t="n">
-        <v>1350.25503002517</v>
+        <v>1643.016745694875</v>
       </c>
       <c r="AC3" t="n">
-        <v>1221.388585054404</v>
+        <v>1486.209533474241</v>
       </c>
       <c r="AD3" t="n">
-        <v>986852.4288617785</v>
+        <v>1200821.34863022</v>
       </c>
       <c r="AE3" t="n">
-        <v>1350255.03002517</v>
+        <v>1643016.745694875</v>
       </c>
       <c r="AF3" t="n">
         <v>5.85161258683158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1221388.585054404</v>
+        <v>1486209.533474241</v>
       </c>
     </row>
     <row r="4">
@@ -23493,28 +23493,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>992.0223658020366</v>
+        <v>1205.991285570478</v>
       </c>
       <c r="AB4" t="n">
-        <v>1357.328765828352</v>
+        <v>1650.090481498057</v>
       </c>
       <c r="AC4" t="n">
-        <v>1227.787213440581</v>
+        <v>1492.608161860418</v>
       </c>
       <c r="AD4" t="n">
-        <v>992022.3658020366</v>
+        <v>1205991.285570478</v>
       </c>
       <c r="AE4" t="n">
-        <v>1357328.765828352</v>
+        <v>1650090.481498057</v>
       </c>
       <c r="AF4" t="n">
         <v>5.8512207815027e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1227787.213440581</v>
+        <v>1492608.161860418</v>
       </c>
     </row>
   </sheetData>
@@ -23790,28 +23790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.057020821916</v>
+        <v>1180.864256481374</v>
       </c>
       <c r="AB2" t="n">
-        <v>1304.014661796853</v>
+        <v>1615.710571772057</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.561332671034</v>
+        <v>1461.509422466161</v>
       </c>
       <c r="AD2" t="n">
-        <v>953057.0208219161</v>
+        <v>1180864.256481374</v>
       </c>
       <c r="AE2" t="n">
-        <v>1304014.661796853</v>
+        <v>1615710.571772057</v>
       </c>
       <c r="AF2" t="n">
         <v>6.959924973309579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.47005208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179561.332671034</v>
+        <v>1461509.422466161</v>
       </c>
     </row>
   </sheetData>
@@ -24087,28 +24087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2604.743142076143</v>
+        <v>2941.355877547403</v>
       </c>
       <c r="AB2" t="n">
-        <v>3563.924480146047</v>
+        <v>4024.492875123658</v>
       </c>
       <c r="AC2" t="n">
-        <v>3223.788529760198</v>
+        <v>3640.400923532929</v>
       </c>
       <c r="AD2" t="n">
-        <v>2604743.142076143</v>
+        <v>2941355.877547402</v>
       </c>
       <c r="AE2" t="n">
-        <v>3563924.480146047</v>
+        <v>4024492.875123658</v>
       </c>
       <c r="AF2" t="n">
         <v>2.710043303830284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3223788.529760198</v>
+        <v>3640400.923532929</v>
       </c>
     </row>
     <row r="3">
@@ -24193,28 +24193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1577.119194854329</v>
+        <v>1817.595909240978</v>
       </c>
       <c r="AB3" t="n">
-        <v>2157.88405998803</v>
+        <v>2486.91490969573</v>
       </c>
       <c r="AC3" t="n">
-        <v>1951.938633912072</v>
+        <v>2249.567241121367</v>
       </c>
       <c r="AD3" t="n">
-        <v>1577119.194854329</v>
+        <v>1817595.909240978</v>
       </c>
       <c r="AE3" t="n">
-        <v>2157884.05998803</v>
+        <v>2486914.90969573</v>
       </c>
       <c r="AF3" t="n">
         <v>3.72975451306812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1951938.633912072</v>
+        <v>2249567.241121367</v>
       </c>
     </row>
     <row r="4">
@@ -24299,28 +24299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1344.631353126703</v>
+        <v>1556.213607547777</v>
       </c>
       <c r="AB4" t="n">
-        <v>1839.783938296593</v>
+        <v>2129.280113145786</v>
       </c>
       <c r="AC4" t="n">
-        <v>1664.197541378541</v>
+        <v>1926.06460761056</v>
       </c>
       <c r="AD4" t="n">
-        <v>1344631.353126703</v>
+        <v>1556213.607547777</v>
       </c>
       <c r="AE4" t="n">
-        <v>1839783.938296593</v>
+        <v>2129280.113145786</v>
       </c>
       <c r="AF4" t="n">
         <v>4.103899166416645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1664197.541378541</v>
+        <v>1926064.60761056</v>
       </c>
     </row>
     <row r="5">
@@ -24405,28 +24405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1224.530002724763</v>
+        <v>1426.491821953619</v>
       </c>
       <c r="AB5" t="n">
-        <v>1675.455972179027</v>
+        <v>1951.789043174582</v>
       </c>
       <c r="AC5" t="n">
-        <v>1515.552805711486</v>
+        <v>1765.513036247126</v>
       </c>
       <c r="AD5" t="n">
-        <v>1224530.002724763</v>
+        <v>1426491.821953619</v>
       </c>
       <c r="AE5" t="n">
-        <v>1675455.972179027</v>
+        <v>1951789.043174582</v>
       </c>
       <c r="AF5" t="n">
         <v>4.30266351350805e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.12239583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1515552.805711486</v>
+        <v>1765513.036247126</v>
       </c>
     </row>
     <row r="6">
@@ -24511,28 +24511,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1156.096155300332</v>
+        <v>1358.023809110408</v>
       </c>
       <c r="AB6" t="n">
-        <v>1581.821763044649</v>
+        <v>1858.108087406956</v>
       </c>
       <c r="AC6" t="n">
-        <v>1430.854914080456</v>
+        <v>1680.772859415915</v>
       </c>
       <c r="AD6" t="n">
-        <v>1156096.155300332</v>
+        <v>1358023.809110408</v>
       </c>
       <c r="AE6" t="n">
-        <v>1581821.763044649</v>
+        <v>1858108.087406956</v>
       </c>
       <c r="AF6" t="n">
         <v>4.402324068492255e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.16536458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1430854.914080455</v>
+        <v>1680772.859415916</v>
       </c>
     </row>
     <row r="7">
@@ -24617,28 +24617,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1150.411560280898</v>
+        <v>1352.339214090973</v>
       </c>
       <c r="AB7" t="n">
-        <v>1574.043849352427</v>
+        <v>1850.330173714734</v>
       </c>
       <c r="AC7" t="n">
-        <v>1423.819313554648</v>
+        <v>1673.737258890108</v>
       </c>
       <c r="AD7" t="n">
-        <v>1150411.560280898</v>
+        <v>1352339.214090973</v>
       </c>
       <c r="AE7" t="n">
-        <v>1574043.849352427</v>
+        <v>1850330.173714734</v>
       </c>
       <c r="AF7" t="n">
         <v>4.417356666171437e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.02864583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1423819.313554648</v>
+        <v>1673737.258890108</v>
       </c>
     </row>
     <row r="8">
@@ -24723,28 +24723,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1154.119518382294</v>
+        <v>1356.04717219237</v>
       </c>
       <c r="AB8" t="n">
-        <v>1579.117241210324</v>
+        <v>1855.403565572631</v>
       </c>
       <c r="AC8" t="n">
-        <v>1428.408508014178</v>
+        <v>1678.326453349638</v>
       </c>
       <c r="AD8" t="n">
-        <v>1154119.518382294</v>
+        <v>1356047.17219237</v>
       </c>
       <c r="AE8" t="n">
-        <v>1579117.241210324</v>
+        <v>1855403.565572631</v>
       </c>
       <c r="AF8" t="n">
         <v>4.417078284732933e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.02864583333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1428408.508014178</v>
+        <v>1678326.453349638</v>
       </c>
     </row>
   </sheetData>
@@ -25020,28 +25020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3673.11467197883</v>
+        <v>4062.466338470742</v>
       </c>
       <c r="AB2" t="n">
-        <v>5025.717540584391</v>
+        <v>5558.445667661889</v>
       </c>
       <c r="AC2" t="n">
-        <v>4546.070112149696</v>
+        <v>5027.955414467521</v>
       </c>
       <c r="AD2" t="n">
-        <v>3673114.67197883</v>
+        <v>4062466.338470742</v>
       </c>
       <c r="AE2" t="n">
-        <v>5025717.540584391</v>
+        <v>5558445.667661889</v>
       </c>
       <c r="AF2" t="n">
         <v>2.072726972237158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4546070.112149696</v>
+        <v>5027955.414467521</v>
       </c>
     </row>
     <row r="3">
@@ -25126,28 +25126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1941.377193520407</v>
+        <v>2204.122420285062</v>
       </c>
       <c r="AB3" t="n">
-        <v>2656.277923691701</v>
+        <v>3015.777534452592</v>
       </c>
       <c r="AC3" t="n">
-        <v>2402.766486764045</v>
+        <v>2727.955959234675</v>
       </c>
       <c r="AD3" t="n">
-        <v>1941377.193520407</v>
+        <v>2204122.420285062</v>
       </c>
       <c r="AE3" t="n">
-        <v>2656277.923691701</v>
+        <v>3015777.534452592</v>
       </c>
       <c r="AF3" t="n">
         <v>3.120409962451692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.48046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2402766.486764045</v>
+        <v>2727955.959234675</v>
       </c>
     </row>
     <row r="4">
@@ -25232,28 +25232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1610.676553513432</v>
+        <v>1844.314279125689</v>
       </c>
       <c r="AB4" t="n">
-        <v>2203.798718551594</v>
+        <v>2523.472162103281</v>
       </c>
       <c r="AC4" t="n">
-        <v>1993.471261903957</v>
+        <v>2282.635520667567</v>
       </c>
       <c r="AD4" t="n">
-        <v>1610676.553513432</v>
+        <v>1844314.279125689</v>
       </c>
       <c r="AE4" t="n">
-        <v>2203798.718551594</v>
+        <v>2523472.162103281</v>
       </c>
       <c r="AF4" t="n">
         <v>3.512819437778145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.62109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1993471.261903957</v>
+        <v>2282635.520667567</v>
       </c>
     </row>
     <row r="5">
@@ -25338,28 +25338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1453.79807776336</v>
+        <v>1677.665309163877</v>
       </c>
       <c r="AB5" t="n">
-        <v>1989.150667040455</v>
+        <v>2295.455689367855</v>
       </c>
       <c r="AC5" t="n">
-        <v>1799.308919168609</v>
+        <v>2076.380620066881</v>
       </c>
       <c r="AD5" t="n">
-        <v>1453798.07776336</v>
+        <v>1677665.309163877</v>
       </c>
       <c r="AE5" t="n">
-        <v>1989150.667040455</v>
+        <v>2295455.689367855</v>
       </c>
       <c r="AF5" t="n">
         <v>3.725374570246641e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.95833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1799308.919168609</v>
+        <v>2076380.62006688</v>
       </c>
     </row>
     <row r="6">
@@ -25444,28 +25444,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1362.231909122198</v>
+        <v>1576.295491922051</v>
       </c>
       <c r="AB6" t="n">
-        <v>1863.865795491359</v>
+        <v>2156.757033296878</v>
       </c>
       <c r="AC6" t="n">
-        <v>1685.981059921737</v>
+        <v>1950.919169066532</v>
       </c>
       <c r="AD6" t="n">
-        <v>1362231.909122198</v>
+        <v>1576295.491922051</v>
       </c>
       <c r="AE6" t="n">
-        <v>1863865.795491359</v>
+        <v>2156757.033296878</v>
       </c>
       <c r="AF6" t="n">
         <v>3.857435451366119e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.45442708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1685981.059921737</v>
+        <v>1950919.169066532</v>
       </c>
     </row>
     <row r="7">
@@ -25550,28 +25550,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1292.84009927072</v>
+        <v>1497.201518696393</v>
       </c>
       <c r="AB7" t="n">
-        <v>1768.920859901974</v>
+        <v>2048.537169749703</v>
       </c>
       <c r="AC7" t="n">
-        <v>1600.097535728949</v>
+        <v>1853.027657408766</v>
       </c>
       <c r="AD7" t="n">
-        <v>1292840.09927072</v>
+        <v>1497201.518696393</v>
       </c>
       <c r="AE7" t="n">
-        <v>1768920.859901974</v>
+        <v>2048537.169749703</v>
       </c>
       <c r="AF7" t="n">
         <v>3.947739939598296e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1600097.535728949</v>
+        <v>1853027.657408766</v>
       </c>
     </row>
     <row r="8">
@@ -25656,28 +25656,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1234.986021636769</v>
+        <v>1439.414760870147</v>
       </c>
       <c r="AB8" t="n">
-        <v>1689.762358541433</v>
+        <v>1969.470778320003</v>
       </c>
       <c r="AC8" t="n">
-        <v>1528.493810638603</v>
+        <v>1781.507251406739</v>
       </c>
       <c r="AD8" t="n">
-        <v>1234986.021636769</v>
+        <v>1439414.760870147</v>
       </c>
       <c r="AE8" t="n">
-        <v>1689762.358541433</v>
+        <v>1969470.778320003</v>
       </c>
       <c r="AF8" t="n">
         <v>4.008865261716455e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.85286458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1528493.810638604</v>
+        <v>1781507.251406739</v>
       </c>
     </row>
     <row r="9">
@@ -25762,28 +25762,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1227.32556729835</v>
+        <v>1431.754306531728</v>
       </c>
       <c r="AB9" t="n">
-        <v>1679.280986960214</v>
+        <v>1958.989406738785</v>
       </c>
       <c r="AC9" t="n">
-        <v>1519.012766450399</v>
+        <v>1772.026207218535</v>
       </c>
       <c r="AD9" t="n">
-        <v>1227325.56729835</v>
+        <v>1431754.306531728</v>
       </c>
       <c r="AE9" t="n">
-        <v>1679280.986960215</v>
+        <v>1958989.406738785</v>
       </c>
       <c r="AF9" t="n">
         <v>4.019933221276945e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.73567708333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1519012.766450399</v>
+        <v>1772026.207218535</v>
       </c>
     </row>
     <row r="10">
@@ -25868,28 +25868,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1230.526519086687</v>
+        <v>1434.955258320065</v>
       </c>
       <c r="AB10" t="n">
-        <v>1683.660670413043</v>
+        <v>1963.369090191613</v>
       </c>
       <c r="AC10" t="n">
-        <v>1522.974459061414</v>
+        <v>1775.98789982955</v>
       </c>
       <c r="AD10" t="n">
-        <v>1230526.519086687</v>
+        <v>1434955.258320065</v>
       </c>
       <c r="AE10" t="n">
-        <v>1683660.670413043</v>
+        <v>1963369.090191613</v>
       </c>
       <c r="AF10" t="n">
         <v>4.019933221276945e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.73567708333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1522974.459061414</v>
+        <v>1775987.89982955</v>
       </c>
     </row>
   </sheetData>
@@ -26165,28 +26165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>975.6392515433927</v>
+        <v>1228.401662722471</v>
       </c>
       <c r="AB2" t="n">
-        <v>1334.912666127685</v>
+        <v>1680.753348193477</v>
       </c>
       <c r="AC2" t="n">
-        <v>1207.510474834152</v>
+        <v>1520.344607594031</v>
       </c>
       <c r="AD2" t="n">
-        <v>975639.2515433927</v>
+        <v>1228401.662722471</v>
       </c>
       <c r="AE2" t="n">
-        <v>1334912.666127685</v>
+        <v>1680753.348193476</v>
       </c>
       <c r="AF2" t="n">
         <v>7.364802267365397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.9453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1207510.474834152</v>
+        <v>1520344.60759403</v>
       </c>
     </row>
   </sheetData>
@@ -26462,28 +26462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1657.328844950018</v>
+        <v>1931.076476648597</v>
       </c>
       <c r="AB2" t="n">
-        <v>2267.630441848973</v>
+        <v>2642.184028432135</v>
       </c>
       <c r="AC2" t="n">
-        <v>2051.21097511822</v>
+        <v>2390.017693087145</v>
       </c>
       <c r="AD2" t="n">
-        <v>1657328.844950018</v>
+        <v>1931076.476648597</v>
       </c>
       <c r="AE2" t="n">
-        <v>2267630.441848973</v>
+        <v>2642184.028432135</v>
       </c>
       <c r="AF2" t="n">
         <v>3.949704870918646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.83723958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2051210.97511822</v>
+        <v>2390017.693087145</v>
       </c>
     </row>
     <row r="3">
@@ -26568,28 +26568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1155.088679395182</v>
+        <v>1362.769732518798</v>
       </c>
       <c r="AB3" t="n">
-        <v>1580.443290064524</v>
+        <v>1864.601669189679</v>
       </c>
       <c r="AC3" t="n">
-        <v>1429.608000626854</v>
+        <v>1686.646702867095</v>
       </c>
       <c r="AD3" t="n">
-        <v>1155088.679395183</v>
+        <v>1362769.732518798</v>
       </c>
       <c r="AE3" t="n">
-        <v>1580443.290064524</v>
+        <v>1864601.669189679</v>
       </c>
       <c r="AF3" t="n">
         <v>4.914175425230737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.07552083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1429608.000626854</v>
+        <v>1686646.702867095</v>
       </c>
     </row>
     <row r="4">
@@ -26674,28 +26674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1050.512609988699</v>
+        <v>1248.7505552518</v>
       </c>
       <c r="AB4" t="n">
-        <v>1437.357698332001</v>
+        <v>1708.595600681884</v>
       </c>
       <c r="AC4" t="n">
-        <v>1300.178296947394</v>
+        <v>1545.529634581791</v>
       </c>
       <c r="AD4" t="n">
-        <v>1050512.609988699</v>
+        <v>1248750.5552518</v>
       </c>
       <c r="AE4" t="n">
-        <v>1437357.698332001</v>
+        <v>1708595.600681884</v>
       </c>
       <c r="AF4" t="n">
         <v>5.147058967148111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.08333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1300178.296947394</v>
+        <v>1545529.634581791</v>
       </c>
     </row>
     <row r="5">
@@ -26780,28 +26780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1052.634866869957</v>
+        <v>1250.872812133058</v>
       </c>
       <c r="AB5" t="n">
-        <v>1440.261463824304</v>
+        <v>1711.499366174187</v>
       </c>
       <c r="AC5" t="n">
-        <v>1302.804931136572</v>
+        <v>1548.156268770969</v>
       </c>
       <c r="AD5" t="n">
-        <v>1052634.866869957</v>
+        <v>1250872.812133058</v>
       </c>
       <c r="AE5" t="n">
-        <v>1440261.463824304</v>
+        <v>1711499.366174187</v>
       </c>
       <c r="AF5" t="n">
         <v>5.152382019534793e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.03776041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1302804.931136572</v>
+        <v>1548156.268770969</v>
       </c>
     </row>
   </sheetData>
@@ -27077,28 +27077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2191.246283264773</v>
+        <v>2496.936286799121</v>
       </c>
       <c r="AB2" t="n">
-        <v>2998.159835726357</v>
+        <v>3416.418384653232</v>
       </c>
       <c r="AC2" t="n">
-        <v>2712.019668948278</v>
+        <v>3090.360208995116</v>
       </c>
       <c r="AD2" t="n">
-        <v>2191246.283264773</v>
+        <v>2496936.286799121</v>
       </c>
       <c r="AE2" t="n">
-        <v>2998159.835726357</v>
+        <v>3416418.384653232</v>
       </c>
       <c r="AF2" t="n">
         <v>3.122375128562652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.77083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2712019.668948278</v>
+        <v>3090360.208995116</v>
       </c>
     </row>
     <row r="3">
@@ -27183,28 +27183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1404.878896337158</v>
+        <v>1634.16348169731</v>
       </c>
       <c r="AB3" t="n">
-        <v>1922.217284851157</v>
+        <v>2235.934569862919</v>
       </c>
       <c r="AC3" t="n">
-        <v>1738.763565033865</v>
+        <v>2022.540112669079</v>
       </c>
       <c r="AD3" t="n">
-        <v>1404878.896337159</v>
+        <v>1634163.48169731</v>
       </c>
       <c r="AE3" t="n">
-        <v>1922217.284851157</v>
+        <v>2235934.569862919</v>
       </c>
       <c r="AF3" t="n">
         <v>4.122483139381201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.78385416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1738763.565033865</v>
+        <v>2022540.11266908</v>
       </c>
     </row>
     <row r="4">
@@ -27289,28 +27289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200.471209140345</v>
+        <v>1420.132515713813</v>
       </c>
       <c r="AB4" t="n">
-        <v>1642.537669397764</v>
+        <v>1943.087959824489</v>
       </c>
       <c r="AC4" t="n">
-        <v>1485.776179546539</v>
+        <v>1757.642372079919</v>
       </c>
       <c r="AD4" t="n">
-        <v>1200471.209140345</v>
+        <v>1420132.515713813</v>
       </c>
       <c r="AE4" t="n">
-        <v>1642537.669397764</v>
+        <v>1943087.959824488</v>
       </c>
       <c r="AF4" t="n">
         <v>4.491302592422994e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.94270833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1485776.179546539</v>
+        <v>1757642.372079919</v>
       </c>
     </row>
     <row r="5">
@@ -27395,28 +27395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1114.805358030369</v>
+        <v>1315.459264961935</v>
       </c>
       <c r="AB5" t="n">
-        <v>1525.325872598474</v>
+        <v>1799.869400287858</v>
       </c>
       <c r="AC5" t="n">
-        <v>1379.750912125983</v>
+        <v>1628.092390856953</v>
       </c>
       <c r="AD5" t="n">
-        <v>1114805.358030369</v>
+        <v>1315459.264961935</v>
       </c>
       <c r="AE5" t="n">
-        <v>1525325.872598474</v>
+        <v>1799869.400287858</v>
       </c>
       <c r="AF5" t="n">
         <v>4.645347665179406e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.51692708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1379750.912125983</v>
+        <v>1628092.390856953</v>
       </c>
     </row>
     <row r="6">
@@ -27501,28 +27501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1106.678562176628</v>
+        <v>1307.230983881708</v>
       </c>
       <c r="AB6" t="n">
-        <v>1514.206431982456</v>
+        <v>1788.611103107751</v>
       </c>
       <c r="AC6" t="n">
-        <v>1369.692695316125</v>
+        <v>1617.908569758596</v>
       </c>
       <c r="AD6" t="n">
-        <v>1106678.562176628</v>
+        <v>1307230.983881708</v>
       </c>
       <c r="AE6" t="n">
-        <v>1514206.431982456</v>
+        <v>1788611.103107751</v>
       </c>
       <c r="AF6" t="n">
         <v>4.669639388190994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.30208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1369692.695316125</v>
+        <v>1617908.569758596</v>
       </c>
     </row>
     <row r="7">
@@ -27607,28 +27607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1110.709195068161</v>
+        <v>1311.261616773242</v>
       </c>
       <c r="AB7" t="n">
-        <v>1519.721321723626</v>
+        <v>1794.12599284892</v>
       </c>
       <c r="AC7" t="n">
-        <v>1374.681251720593</v>
+        <v>1622.897126163065</v>
       </c>
       <c r="AD7" t="n">
-        <v>1110709.195068161</v>
+        <v>1311261.616773242</v>
       </c>
       <c r="AE7" t="n">
-        <v>1519721.321723626</v>
+        <v>1794125.99284892</v>
       </c>
       <c r="AF7" t="n">
         <v>4.669639388190994e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.30208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1374681.251720593</v>
+        <v>1622897.126163065</v>
       </c>
     </row>
   </sheetData>
